--- a/Python 数据实验/实验测试2.0/数据源/数据集来源-去哪网/2019-12-21-10-8-37-849400362049100-北京旅游报价_去北京旅游多少钱_北京旅游团景点-去哪儿网-采集的数据-后羿采集器.xlsx
+++ b/Python 数据实验/实验测试2.0/数据源/数据集来源-去哪网/2019-12-21-10-8-37-849400362049100-北京旅游报价_去北京旅游多少钱_北京旅游团景点-去哪儿网-采集的数据-后羿采集器.xlsx
@@ -1064,10 +1064,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,26 +1077,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1112,25 +1107,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,69 +1121,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,6 +1143,82 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1236,37 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,7 +1241,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,7 +1283,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,19 +1337,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,25 +1373,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,49 +1403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,15 +1438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1464,30 +1448,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1522,156 +1482,189 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2060,13 +2053,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="112.333333333333" customWidth="1"/>
     <col min="2" max="2" width="76.2222222222222" customWidth="1"/>
@@ -2083,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2093,8 +2086,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2104,8 +2103,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2115,8 +2120,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2126,8 +2137,14 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2137,8 +2154,14 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2148,8 +2171,14 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2159,8 +2188,14 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2170,8 +2205,14 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2181,8 +2222,14 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2192,8 +2239,14 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2203,8 +2256,14 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2214,8 +2273,14 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2225,8 +2290,14 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2236,8 +2307,14 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2247,8 +2324,14 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2258,8 +2341,14 @@
       <c r="C17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2269,8 +2358,14 @@
       <c r="C18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2280,8 +2375,14 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2291,8 +2392,14 @@
       <c r="C20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -2302,8 +2409,14 @@
       <c r="C21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -2313,8 +2426,14 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2324,8 +2443,14 @@
       <c r="C23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2335,8 +2460,14 @@
       <c r="C24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2346,8 +2477,14 @@
       <c r="C25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2357,8 +2494,14 @@
       <c r="C26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -2368,8 +2511,14 @@
       <c r="C27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2379,8 +2528,14 @@
       <c r="C28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2390,8 +2545,14 @@
       <c r="C29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -2401,8 +2562,14 @@
       <c r="C30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2412,8 +2579,14 @@
       <c r="C31" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2423,8 +2596,14 @@
       <c r="C32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -2434,8 +2613,14 @@
       <c r="C33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -2445,8 +2630,14 @@
       <c r="C34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -2456,8 +2647,14 @@
       <c r="C35" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2467,8 +2664,14 @@
       <c r="C36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -2478,8 +2681,14 @@
       <c r="C37" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -2489,8 +2698,14 @@
       <c r="C38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -2500,8 +2715,14 @@
       <c r="C39" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -2511,8 +2732,14 @@
       <c r="C40" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -2522,8 +2749,14 @@
       <c r="C41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -2533,8 +2766,14 @@
       <c r="C42" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -2544,8 +2783,14 @@
       <c r="C43" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -2555,8 +2800,14 @@
       <c r="C44" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -2566,8 +2817,14 @@
       <c r="C45" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -2577,8 +2834,14 @@
       <c r="C46" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -2588,8 +2851,14 @@
       <c r="C47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -2599,8 +2868,14 @@
       <c r="C48" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -2610,8 +2885,14 @@
       <c r="C49" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -2621,8 +2902,14 @@
       <c r="C50" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -2632,8 +2919,14 @@
       <c r="C51" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -2643,8 +2936,14 @@
       <c r="C52" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -2654,8 +2953,14 @@
       <c r="C53" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -2665,8 +2970,14 @@
       <c r="C54" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -2676,8 +2987,14 @@
       <c r="C55" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>40</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -2687,8 +3004,14 @@
       <c r="C56" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -2698,8 +3021,14 @@
       <c r="C57" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>164</v>
       </c>
@@ -2709,8 +3038,14 @@
       <c r="C58" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -2720,8 +3055,14 @@
       <c r="C59" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -2731,8 +3072,14 @@
       <c r="C60" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>172</v>
       </c>
@@ -2742,8 +3089,14 @@
       <c r="C61" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -2753,8 +3106,14 @@
       <c r="C62" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>177</v>
       </c>
@@ -2764,8 +3123,14 @@
       <c r="C63" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>180</v>
       </c>
@@ -2775,8 +3140,14 @@
       <c r="C64" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>40</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -2786,8 +3157,14 @@
       <c r="C65" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -2797,8 +3174,14 @@
       <c r="C66" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -2808,8 +3191,14 @@
       <c r="C67" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>40</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -2819,8 +3208,14 @@
       <c r="C68" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>40</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -2830,8 +3225,14 @@
       <c r="C69" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <v>40</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>196</v>
       </c>
@@ -2841,8 +3242,14 @@
       <c r="C70" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>40</v>
+      </c>
+      <c r="E70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>199</v>
       </c>
@@ -2852,8 +3259,14 @@
       <c r="C71" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>40</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -2863,8 +3276,14 @@
       <c r="C72" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>40</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>205</v>
       </c>
@@ -2874,8 +3293,14 @@
       <c r="C73" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>40</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>208</v>
       </c>
@@ -2885,8 +3310,14 @@
       <c r="C74" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>40</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>211</v>
       </c>
@@ -2896,8 +3327,14 @@
       <c r="C75" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>40</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>213</v>
       </c>
@@ -2907,8 +3344,14 @@
       <c r="C76" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>40</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>215</v>
       </c>
@@ -2918,8 +3361,14 @@
       <c r="C77" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>218</v>
       </c>
@@ -2929,8 +3378,14 @@
       <c r="C78" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>40</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>221</v>
       </c>
@@ -2940,8 +3395,14 @@
       <c r="C79" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -2951,8 +3412,14 @@
       <c r="C80" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <v>40</v>
+      </c>
+      <c r="E80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>227</v>
       </c>
@@ -2962,8 +3429,14 @@
       <c r="C81" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <v>40</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>229</v>
       </c>
@@ -2973,8 +3446,14 @@
       <c r="C82" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <v>40</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>232</v>
       </c>
@@ -2984,8 +3463,14 @@
       <c r="C83" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>40</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>235</v>
       </c>
@@ -2995,8 +3480,14 @@
       <c r="C84" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>40</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>238</v>
       </c>
@@ -3006,8 +3497,14 @@
       <c r="C85" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>241</v>
       </c>
@@ -3017,8 +3514,14 @@
       <c r="C86" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <v>40</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>244</v>
       </c>
@@ -3028,8 +3531,14 @@
       <c r="C87" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>40</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>247</v>
       </c>
@@ -3039,8 +3548,14 @@
       <c r="C88" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <v>40</v>
+      </c>
+      <c r="E88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>250</v>
       </c>
@@ -3050,8 +3565,14 @@
       <c r="C89" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>40</v>
+      </c>
+      <c r="E89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>253</v>
       </c>
@@ -3061,8 +3582,14 @@
       <c r="C90" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <v>40</v>
+      </c>
+      <c r="E90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>255</v>
       </c>
@@ -3072,8 +3599,14 @@
       <c r="C91" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="E91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>258</v>
       </c>
@@ -3083,8 +3616,14 @@
       <c r="C92" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>261</v>
       </c>
@@ -3094,8 +3633,14 @@
       <c r="C93" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="E93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>264</v>
       </c>
@@ -3105,8 +3650,14 @@
       <c r="C94" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>267</v>
       </c>
@@ -3116,8 +3667,14 @@
       <c r="C95" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>40</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>270</v>
       </c>
@@ -3127,8 +3684,14 @@
       <c r="C96" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>40</v>
+      </c>
+      <c r="E96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>273</v>
       </c>
@@ -3138,8 +3701,14 @@
       <c r="C97" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <v>40</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>276</v>
       </c>
@@ -3149,8 +3718,14 @@
       <c r="C98" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>40</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>279</v>
       </c>
@@ -3160,8 +3735,14 @@
       <c r="C99" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>40</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>282</v>
       </c>
@@ -3171,8 +3752,14 @@
       <c r="C100" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>40</v>
+      </c>
+      <c r="E100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>285</v>
       </c>
@@ -3182,8 +3769,14 @@
       <c r="C101" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <v>40</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>288</v>
       </c>
@@ -3193,8 +3786,14 @@
       <c r="C102" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>40</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>291</v>
       </c>
@@ -3204,8 +3803,14 @@
       <c r="C103" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>40</v>
+      </c>
+      <c r="E103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>294</v>
       </c>
@@ -3215,8 +3820,14 @@
       <c r="C104" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <v>40</v>
+      </c>
+      <c r="E104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>297</v>
       </c>
@@ -3226,8 +3837,14 @@
       <c r="C105" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <v>40</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>300</v>
       </c>
@@ -3237,8 +3854,14 @@
       <c r="C106" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <v>40</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>303</v>
       </c>
@@ -3248,8 +3871,14 @@
       <c r="C107" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <v>40</v>
+      </c>
+      <c r="E107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>306</v>
       </c>
@@ -3259,8 +3888,14 @@
       <c r="C108" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>40</v>
+      </c>
+      <c r="E108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>309</v>
       </c>
@@ -3270,8 +3905,14 @@
       <c r="C109" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <v>40</v>
+      </c>
+      <c r="E109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>311</v>
       </c>
@@ -3281,8 +3922,14 @@
       <c r="C110" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <v>40</v>
+      </c>
+      <c r="E110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>314</v>
       </c>
@@ -3292,8 +3939,14 @@
       <c r="C111" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <v>40</v>
+      </c>
+      <c r="E111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -3303,8 +3956,14 @@
       <c r="C112" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112">
+        <v>40</v>
+      </c>
+      <c r="E112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>320</v>
       </c>
@@ -3314,8 +3973,14 @@
       <c r="C113" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113">
+        <v>40</v>
+      </c>
+      <c r="E113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>323</v>
       </c>
@@ -3325,8 +3990,14 @@
       <c r="C114" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <v>40</v>
+      </c>
+      <c r="E114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>326</v>
       </c>
@@ -3336,8 +4007,14 @@
       <c r="C115" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <v>40</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>329</v>
       </c>
@@ -3347,8 +4024,14 @@
       <c r="C116" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116">
+        <v>40</v>
+      </c>
+      <c r="E116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -3358,8 +4041,14 @@
       <c r="C117" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117">
+        <v>40</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>335</v>
       </c>
@@ -3369,8 +4058,14 @@
       <c r="C118" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118">
+        <v>40</v>
+      </c>
+      <c r="E118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>338</v>
       </c>
@@ -3380,8 +4075,14 @@
       <c r="C119" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119">
+        <v>40</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>341</v>
       </c>
@@ -3391,8 +4092,14 @@
       <c r="C120" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <v>40</v>
+      </c>
+      <c r="E120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>344</v>
       </c>
@@ -3401,6 +4108,12 @@
       </c>
       <c r="C121" t="s">
         <v>346</v>
+      </c>
+      <c r="D121">
+        <v>40</v>
+      </c>
+      <c r="E121">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
